--- a/Execl/Staff.xlsx
+++ b/Execl/Staff.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>属性ID，属性值</t>
@@ -42,7 +41,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>属性ID，最小值，最大值</t>
@@ -54,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>Id</t>
   </si>
@@ -599,8 +597,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,14 +616,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -627,26 +629,155 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,8 +790,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -668,9 +985,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -683,27 +1242,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -990,19 +1593,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
@@ -1016,7 +1619,7 @@
     <col min="13" max="13" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1644,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1656,7 @@
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1078,7 +1681,7 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1090,7 +1693,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1718,7 @@
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>27</v>
@@ -1125,7 +1728,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1138,24 +1741,24 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1168,21 +1771,21 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1195,21 +1798,21 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1222,21 +1825,21 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1249,21 +1852,21 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1276,21 +1879,21 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1303,21 +1906,21 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1330,21 +1933,21 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1357,21 +1960,21 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1384,21 +1987,21 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1411,18 +2014,18 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1435,18 +2038,18 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1459,18 +2062,18 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1483,18 +2086,18 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1507,18 +2110,18 @@
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1531,18 +2134,18 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1555,18 +2158,18 @@
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1579,18 +2182,18 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1603,18 +2206,18 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1627,18 +2230,18 @@
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1651,18 +2254,18 @@
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1675,18 +2278,18 @@
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1699,18 +2302,18 @@
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -1723,18 +2326,18 @@
       <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -1747,18 +2350,18 @@
       <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -1771,18 +2374,18 @@
       <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -1795,18 +2398,18 @@
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -1819,18 +2422,18 @@
       <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -1843,18 +2446,18 @@
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -1867,18 +2470,18 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -1891,18 +2494,18 @@
       <c r="D34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -1915,18 +2518,18 @@
       <c r="D35" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -1939,18 +2542,18 @@
       <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G36" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -1963,18 +2566,18 @@
       <c r="D37" s="3">
         <v>1</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -1987,18 +2590,18 @@
       <c r="D38" s="3">
         <v>1</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -2011,18 +2614,18 @@
       <c r="D39" s="3">
         <v>1</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -2035,18 +2638,18 @@
       <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G40" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -2059,18 +2662,18 @@
       <c r="D41" s="3">
         <v>1</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -2083,18 +2686,18 @@
       <c r="D42" s="3">
         <v>1</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G42" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -2107,18 +2710,18 @@
       <c r="D43" s="3">
         <v>1</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -2131,18 +2734,18 @@
       <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -2155,18 +2758,18 @@
       <c r="D45" s="3">
         <v>1</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -2179,18 +2782,18 @@
       <c r="D46" s="3">
         <v>1</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -2203,18 +2806,18 @@
       <c r="D47" s="3">
         <v>1</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -2227,18 +2830,18 @@
       <c r="D48" s="3">
         <v>1</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -2251,18 +2854,18 @@
       <c r="D49" s="3">
         <v>1</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -2275,18 +2878,18 @@
       <c r="D50" s="3">
         <v>1</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G50" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -2299,18 +2902,18 @@
       <c r="D51" s="3">
         <v>1</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G51" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -2323,18 +2926,18 @@
       <c r="D52" s="3">
         <v>1</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -2347,18 +2950,18 @@
       <c r="D53" s="3">
         <v>1</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G53" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -2371,18 +2974,18 @@
       <c r="D54" s="3">
         <v>1</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -2395,18 +2998,18 @@
       <c r="D55" s="3">
         <v>1</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G55" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -2419,18 +3022,18 @@
       <c r="D56" s="3">
         <v>1</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G56" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -2443,18 +3046,18 @@
       <c r="D57" s="3">
         <v>1</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -2467,18 +3070,18 @@
       <c r="D58" s="3">
         <v>1</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -2491,18 +3094,18 @@
       <c r="D59" s="3">
         <v>1</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -2515,18 +3118,18 @@
       <c r="D60" s="3">
         <v>1</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -2539,18 +3142,18 @@
       <c r="D61" s="3">
         <v>1</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -2563,18 +3166,18 @@
       <c r="D62" s="3">
         <v>1</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -2587,18 +3190,18 @@
       <c r="D63" s="3">
         <v>1</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G63" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -2611,18 +3214,18 @@
       <c r="D64" s="3">
         <v>2</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G64" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -2635,18 +3238,18 @@
       <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G65" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -2659,18 +3262,18 @@
       <c r="D66" s="3">
         <v>2</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G66" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -2683,18 +3286,18 @@
       <c r="D67" s="3">
         <v>2</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G67" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -2707,18 +3310,18 @@
       <c r="D68" s="3">
         <v>2</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G68" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -2731,18 +3334,18 @@
       <c r="D69" s="3">
         <v>2</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G69" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -2755,18 +3358,18 @@
       <c r="D70" s="3">
         <v>2</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G70" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -2779,18 +3382,18 @@
       <c r="D71" s="3">
         <v>2</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G71" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -2803,18 +3406,18 @@
       <c r="D72" s="3">
         <v>2</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G72" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -2827,18 +3430,18 @@
       <c r="D73" s="3">
         <v>2</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G73" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -2851,18 +3454,18 @@
       <c r="D74" s="3">
         <v>2</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G74" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -2875,18 +3478,18 @@
       <c r="D75" s="3">
         <v>2</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G75" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -2899,18 +3502,18 @@
       <c r="D76" s="3">
         <v>2</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G76" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -2923,18 +3526,18 @@
       <c r="D77" s="3">
         <v>2</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G77" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -2947,18 +3550,18 @@
       <c r="D78" s="3">
         <v>2</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G78" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -2971,18 +3574,18 @@
       <c r="D79" s="3">
         <v>2</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G79" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -2995,18 +3598,18 @@
       <c r="D80" s="3">
         <v>2</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G80" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -3019,18 +3622,18 @@
       <c r="D81" s="3">
         <v>2</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G81" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -3043,18 +3646,18 @@
       <c r="D82" s="3">
         <v>2</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G82" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -3067,18 +3670,18 @@
       <c r="D83" s="3">
         <v>2</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G83" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -3091,18 +3694,18 @@
       <c r="D84" s="3">
         <v>2</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G84" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -3115,18 +3718,18 @@
       <c r="D85" s="3">
         <v>2</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G85" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -3139,18 +3742,18 @@
       <c r="D86" s="3">
         <v>2</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G86" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -3163,18 +3766,18 @@
       <c r="D87" s="3">
         <v>2</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G87" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -3187,18 +3790,18 @@
       <c r="D88" s="3">
         <v>2</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G88" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -3211,18 +3814,18 @@
       <c r="D89" s="3">
         <v>2</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G89" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -3235,18 +3838,18 @@
       <c r="D90" s="3">
         <v>2</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G90" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -3259,18 +3862,18 @@
       <c r="D91" s="3">
         <v>2</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G91" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -3283,18 +3886,18 @@
       <c r="D92" s="3">
         <v>2</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G92" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -3307,18 +3910,18 @@
       <c r="D93" s="3">
         <v>2</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G93" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -3331,18 +3934,18 @@
       <c r="D94" s="3">
         <v>2</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G94" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -3355,18 +3958,18 @@
       <c r="D95" s="3">
         <v>2</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G95" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -3379,18 +3982,18 @@
       <c r="D96" s="3">
         <v>2</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G96" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -3403,18 +4006,18 @@
       <c r="D97" s="3">
         <v>2</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G97" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -3427,18 +4030,18 @@
       <c r="D98" s="3">
         <v>2</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G98" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -3451,18 +4054,18 @@
       <c r="D99" s="3">
         <v>2</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G99" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -3475,18 +4078,18 @@
       <c r="D100" s="3">
         <v>2</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G100" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -3499,18 +4102,18 @@
       <c r="D101" s="3">
         <v>2</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G101" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -3523,18 +4126,18 @@
       <c r="D102" s="3">
         <v>2</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G102" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -3547,18 +4150,18 @@
       <c r="D103" s="3">
         <v>2</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G103" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -3571,18 +4174,18 @@
       <c r="D104" s="3">
         <v>2</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G104" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -3595,18 +4198,18 @@
       <c r="D105" s="3">
         <v>2</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G105" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -3619,18 +4222,18 @@
       <c r="D106" s="3">
         <v>2</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G106" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -3643,18 +4246,18 @@
       <c r="D107" s="3">
         <v>2</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G107" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -3667,18 +4270,18 @@
       <c r="D108" s="3">
         <v>2</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G108" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -3691,18 +4294,18 @@
       <c r="D109" s="3">
         <v>2</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G109" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -3715,18 +4318,18 @@
       <c r="D110" s="3">
         <v>2</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G110" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -3739,18 +4342,18 @@
       <c r="D111" s="3">
         <v>2</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G111" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -3763,18 +4366,18 @@
       <c r="D112" s="3">
         <v>2</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G112" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -3787,18 +4390,18 @@
       <c r="D113" s="3">
         <v>2</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G113" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -3811,18 +4414,18 @@
       <c r="D114" s="3">
         <v>2</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G114" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -3835,18 +4438,18 @@
       <c r="D115" s="3">
         <v>2</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G115" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -3859,18 +4462,18 @@
       <c r="D116" s="3">
         <v>2</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G116" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -3883,18 +4486,18 @@
       <c r="D117" s="3">
         <v>2</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G117" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -3907,18 +4510,18 @@
       <c r="D118" s="3">
         <v>2</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G118" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -3931,18 +4534,18 @@
       <c r="D119" s="3">
         <v>2</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G119" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -3955,18 +4558,18 @@
       <c r="D120" s="3">
         <v>2</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G120" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -3979,18 +4582,18 @@
       <c r="D121" s="3">
         <v>2</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G121" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -4003,18 +4606,18 @@
       <c r="D122" s="3">
         <v>2</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G122" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -4027,18 +4630,18 @@
       <c r="D123" s="3">
         <v>2</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G123" s="3">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -4051,18 +4654,18 @@
       <c r="D124" s="3">
         <v>3</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G124" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -4075,18 +4678,18 @@
       <c r="D125" s="3">
         <v>3</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G125" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -4099,18 +4702,18 @@
       <c r="D126" s="3">
         <v>3</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G126" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -4123,18 +4726,18 @@
       <c r="D127" s="3">
         <v>3</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E127" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G127" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -4147,18 +4750,18 @@
       <c r="D128" s="3">
         <v>3</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G128" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -4171,18 +4774,18 @@
       <c r="D129" s="3">
         <v>3</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E129" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G129" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -4195,18 +4798,18 @@
       <c r="D130" s="3">
         <v>3</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E130" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G130" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -4219,18 +4822,18 @@
       <c r="D131" s="3">
         <v>3</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G131" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -4243,18 +4846,18 @@
       <c r="D132" s="3">
         <v>3</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G132" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -4267,18 +4870,18 @@
       <c r="D133" s="3">
         <v>3</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G133" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -4291,18 +4894,18 @@
       <c r="D134" s="3">
         <v>3</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E134" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G134" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -4315,18 +4918,18 @@
       <c r="D135" s="3">
         <v>3</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E135" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G135" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -4339,18 +4942,18 @@
       <c r="D136" s="3">
         <v>3</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E136" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G136" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -4363,18 +4966,18 @@
       <c r="D137" s="3">
         <v>3</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G137" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -4387,18 +4990,18 @@
       <c r="D138" s="3">
         <v>3</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G138" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -4411,18 +5014,18 @@
       <c r="D139" s="3">
         <v>3</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G139" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -4435,18 +5038,18 @@
       <c r="D140" s="3">
         <v>3</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E140" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G140" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -4459,18 +5062,18 @@
       <c r="D141" s="3">
         <v>3</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G141" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8">
       <c r="A142" s="3">
         <v>139</v>
       </c>
@@ -4483,18 +5086,18 @@
       <c r="D142" s="3">
         <v>3</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G142" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8">
       <c r="A143" s="3">
         <v>140</v>
       </c>
@@ -4507,18 +5110,18 @@
       <c r="D143" s="3">
         <v>3</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G143" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8">
       <c r="A144" s="3">
         <v>141</v>
       </c>
@@ -4531,18 +5134,18 @@
       <c r="D144" s="3">
         <v>3</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G144" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8">
       <c r="A145" s="3">
         <v>142</v>
       </c>
@@ -4555,18 +5158,18 @@
       <c r="D145" s="3">
         <v>3</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G145" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8">
       <c r="A146" s="3">
         <v>143</v>
       </c>
@@ -4579,18 +5182,18 @@
       <c r="D146" s="3">
         <v>3</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E146" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G146" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8">
       <c r="A147" s="3">
         <v>144</v>
       </c>
@@ -4603,18 +5206,18 @@
       <c r="D147" s="3">
         <v>3</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G147" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8">
       <c r="A148" s="3">
         <v>145</v>
       </c>
@@ -4627,18 +5230,18 @@
       <c r="D148" s="3">
         <v>3</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G148" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8">
       <c r="A149" s="3">
         <v>146</v>
       </c>
@@ -4651,18 +5254,18 @@
       <c r="D149" s="3">
         <v>3</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G149" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8">
       <c r="A150" s="3">
         <v>147</v>
       </c>
@@ -4675,18 +5278,18 @@
       <c r="D150" s="3">
         <v>3</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G150" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8">
       <c r="A151" s="3">
         <v>148</v>
       </c>
@@ -4699,18 +5302,18 @@
       <c r="D151" s="3">
         <v>3</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="E151" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G151" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8">
       <c r="A152" s="3">
         <v>149</v>
       </c>
@@ -4723,18 +5326,18 @@
       <c r="D152" s="3">
         <v>3</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E152" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G152" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8">
       <c r="A153" s="3">
         <v>150</v>
       </c>
@@ -4747,18 +5350,18 @@
       <c r="D153" s="3">
         <v>3</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E153" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G153" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -4771,18 +5374,18 @@
       <c r="D154" s="3">
         <v>3</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E154" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G154" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8">
       <c r="A155" s="3">
         <v>152</v>
       </c>
@@ -4795,18 +5398,18 @@
       <c r="D155" s="3">
         <v>3</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E155" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G155" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8">
       <c r="A156" s="3">
         <v>153</v>
       </c>
@@ -4819,18 +5422,18 @@
       <c r="D156" s="3">
         <v>3</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E156" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G156" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8">
       <c r="A157" s="3">
         <v>154</v>
       </c>
@@ -4843,18 +5446,18 @@
       <c r="D157" s="3">
         <v>3</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E157" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G157" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8">
       <c r="A158" s="3">
         <v>155</v>
       </c>
@@ -4867,18 +5470,18 @@
       <c r="D158" s="3">
         <v>3</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E158" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G158" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8">
       <c r="A159" s="3">
         <v>156</v>
       </c>
@@ -4891,18 +5494,18 @@
       <c r="D159" s="3">
         <v>3</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E159" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G159" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8">
       <c r="A160" s="3">
         <v>157</v>
       </c>
@@ -4915,18 +5518,18 @@
       <c r="D160" s="3">
         <v>3</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E160" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G160" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8">
       <c r="A161" s="3">
         <v>158</v>
       </c>
@@ -4939,18 +5542,18 @@
       <c r="D161" s="3">
         <v>3</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G161" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8">
       <c r="A162" s="3">
         <v>159</v>
       </c>
@@ -4963,18 +5566,18 @@
       <c r="D162" s="3">
         <v>3</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E162" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G162" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8">
       <c r="A163" s="3">
         <v>160</v>
       </c>
@@ -4987,18 +5590,18 @@
       <c r="D163" s="3">
         <v>3</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E163" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G163" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8">
       <c r="A164" s="3">
         <v>161</v>
       </c>
@@ -5011,18 +5614,18 @@
       <c r="D164" s="3">
         <v>3</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="E164" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G164" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8">
       <c r="A165" s="3">
         <v>162</v>
       </c>
@@ -5035,18 +5638,18 @@
       <c r="D165" s="3">
         <v>3</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E165" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G165" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8">
       <c r="A166" s="3">
         <v>163</v>
       </c>
@@ -5059,18 +5662,18 @@
       <c r="D166" s="3">
         <v>3</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G166" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8">
       <c r="A167" s="3">
         <v>164</v>
       </c>
@@ -5083,18 +5686,18 @@
       <c r="D167" s="3">
         <v>3</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="E167" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G167" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8">
       <c r="A168" s="3">
         <v>165</v>
       </c>
@@ -5107,18 +5710,18 @@
       <c r="D168" s="3">
         <v>3</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E168" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G168" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8">
       <c r="A169" s="3">
         <v>166</v>
       </c>
@@ -5131,18 +5734,18 @@
       <c r="D169" s="3">
         <v>3</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E169" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G169" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8">
       <c r="A170" s="3">
         <v>167</v>
       </c>
@@ -5155,18 +5758,18 @@
       <c r="D170" s="3">
         <v>3</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="E170" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G170" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8">
       <c r="A171" s="3">
         <v>168</v>
       </c>
@@ -5179,18 +5782,18 @@
       <c r="D171" s="3">
         <v>3</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="E171" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G171" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8">
       <c r="A172" s="3">
         <v>169</v>
       </c>
@@ -5203,18 +5806,18 @@
       <c r="D172" s="3">
         <v>3</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E172" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G172" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8">
       <c r="A173" s="3">
         <v>170</v>
       </c>
@@ -5227,18 +5830,18 @@
       <c r="D173" s="3">
         <v>3</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E173" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G173" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8">
       <c r="A174" s="3">
         <v>171</v>
       </c>
@@ -5251,18 +5854,18 @@
       <c r="D174" s="3">
         <v>3</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="E174" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G174" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8">
       <c r="A175" s="3">
         <v>172</v>
       </c>
@@ -5275,18 +5878,18 @@
       <c r="D175" s="3">
         <v>3</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E175" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G175" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8">
       <c r="A176" s="3">
         <v>173</v>
       </c>
@@ -5299,18 +5902,18 @@
       <c r="D176" s="3">
         <v>3</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="E176" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G176" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8">
       <c r="A177" s="3">
         <v>174</v>
       </c>
@@ -5323,18 +5926,18 @@
       <c r="D177" s="3">
         <v>3</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="E177" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G177" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8">
       <c r="A178" s="3">
         <v>175</v>
       </c>
@@ -5347,18 +5950,18 @@
       <c r="D178" s="3">
         <v>3</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="E178" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G178" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8">
       <c r="A179" s="3">
         <v>176</v>
       </c>
@@ -5371,18 +5974,18 @@
       <c r="D179" s="3">
         <v>3</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="E179" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G179" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8">
       <c r="A180" s="3">
         <v>177</v>
       </c>
@@ -5395,18 +5998,18 @@
       <c r="D180" s="3">
         <v>3</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="E180" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G180" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8">
       <c r="A181" s="3">
         <v>178</v>
       </c>
@@ -5419,18 +6022,18 @@
       <c r="D181" s="3">
         <v>3</v>
       </c>
-      <c r="E181" s="6" t="s">
+      <c r="E181" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G181" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H181" s="3"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8">
       <c r="A182" s="3">
         <v>179</v>
       </c>
@@ -5443,18 +6046,18 @@
       <c r="D182" s="3">
         <v>3</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="E182" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G182" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8">
       <c r="A183" s="3">
         <v>180</v>
       </c>
@@ -5467,18 +6070,18 @@
       <c r="D183" s="3">
         <v>3</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E183" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G183" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8">
       <c r="A184" s="3">
         <v>181</v>
       </c>
@@ -5491,18 +6094,18 @@
       <c r="D184" s="3">
         <v>4</v>
       </c>
-      <c r="E184" s="6" t="s">
+      <c r="E184" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G184" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8">
       <c r="A185" s="3">
         <v>182</v>
       </c>
@@ -5515,18 +6118,18 @@
       <c r="D185" s="3">
         <v>4</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="E185" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G185" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H185" s="3"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8">
       <c r="A186" s="3">
         <v>183</v>
       </c>
@@ -5539,18 +6142,18 @@
       <c r="D186" s="3">
         <v>4</v>
       </c>
-      <c r="E186" s="6" t="s">
+      <c r="E186" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G186" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8">
       <c r="A187" s="3">
         <v>184</v>
       </c>
@@ -5563,18 +6166,18 @@
       <c r="D187" s="3">
         <v>4</v>
       </c>
-      <c r="E187" s="6" t="s">
+      <c r="E187" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G187" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H187" s="3"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8">
       <c r="A188" s="3">
         <v>185</v>
       </c>
@@ -5587,18 +6190,18 @@
       <c r="D188" s="3">
         <v>4</v>
       </c>
-      <c r="E188" s="6" t="s">
+      <c r="E188" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G188" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8">
       <c r="A189" s="3">
         <v>186</v>
       </c>
@@ -5611,18 +6214,18 @@
       <c r="D189" s="3">
         <v>4</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="E189" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G189" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8">
       <c r="A190" s="3">
         <v>187</v>
       </c>
@@ -5635,18 +6238,18 @@
       <c r="D190" s="3">
         <v>4</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="E190" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G190" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H190" s="3"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8">
       <c r="A191" s="3">
         <v>188</v>
       </c>
@@ -5659,18 +6262,18 @@
       <c r="D191" s="3">
         <v>4</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E191" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G191" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H191" s="3"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8">
       <c r="A192" s="3">
         <v>189</v>
       </c>
@@ -5683,18 +6286,18 @@
       <c r="D192" s="3">
         <v>4</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="E192" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G192" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H192" s="3"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8">
       <c r="A193" s="3">
         <v>190</v>
       </c>
@@ -5707,18 +6310,18 @@
       <c r="D193" s="3">
         <v>4</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E193" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G193" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H193" s="3"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8">
       <c r="A194" s="3">
         <v>191</v>
       </c>
@@ -5731,18 +6334,18 @@
       <c r="D194" s="3">
         <v>4</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="E194" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G194" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H194" s="3"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8">
       <c r="A195" s="3">
         <v>192</v>
       </c>
@@ -5755,18 +6358,18 @@
       <c r="D195" s="3">
         <v>4</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="E195" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G195" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8">
       <c r="A196" s="3">
         <v>193</v>
       </c>
@@ -5779,18 +6382,18 @@
       <c r="D196" s="3">
         <v>4</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="E196" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G196" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8">
       <c r="A197" s="3">
         <v>194</v>
       </c>
@@ -5803,18 +6406,18 @@
       <c r="D197" s="3">
         <v>4</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="E197" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G197" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H197" s="3"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8">
       <c r="A198" s="3">
         <v>195</v>
       </c>
@@ -5827,18 +6430,18 @@
       <c r="D198" s="3">
         <v>4</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="E198" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G198" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H198" s="3"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8">
       <c r="A199" s="3">
         <v>196</v>
       </c>
@@ -5851,18 +6454,18 @@
       <c r="D199" s="3">
         <v>4</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="E199" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G199" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8">
       <c r="A200" s="3">
         <v>197</v>
       </c>
@@ -5875,18 +6478,18 @@
       <c r="D200" s="3">
         <v>4</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E200" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G200" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8">
       <c r="A201" s="3">
         <v>198</v>
       </c>
@@ -5899,18 +6502,18 @@
       <c r="D201" s="3">
         <v>4</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="E201" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G201" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H201" s="3"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8">
       <c r="A202" s="3">
         <v>199</v>
       </c>
@@ -5923,18 +6526,18 @@
       <c r="D202" s="3">
         <v>4</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E202" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G202" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H202" s="3"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8">
       <c r="A203" s="3">
         <v>200</v>
       </c>
@@ -5947,18 +6550,18 @@
       <c r="D203" s="3">
         <v>4</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="E203" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G203" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H203" s="3"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8">
       <c r="A204" s="3">
         <v>201</v>
       </c>
@@ -5971,18 +6574,18 @@
       <c r="D204" s="3">
         <v>4</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="E204" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G204" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H204" s="3"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8">
       <c r="A205" s="3">
         <v>202</v>
       </c>
@@ -5995,18 +6598,18 @@
       <c r="D205" s="3">
         <v>4</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E205" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G205" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8">
       <c r="A206" s="3">
         <v>203</v>
       </c>
@@ -6019,18 +6622,18 @@
       <c r="D206" s="3">
         <v>4</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="E206" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G206" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8">
       <c r="A207" s="3">
         <v>204</v>
       </c>
@@ -6043,18 +6646,18 @@
       <c r="D207" s="3">
         <v>4</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E207" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G207" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H207" s="3"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8">
       <c r="A208" s="3">
         <v>205</v>
       </c>
@@ -6067,18 +6670,18 @@
       <c r="D208" s="3">
         <v>4</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="E208" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G208" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H208" s="3"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8">
       <c r="A209" s="3">
         <v>206</v>
       </c>
@@ -6091,18 +6694,18 @@
       <c r="D209" s="3">
         <v>4</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E209" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G209" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H209" s="3"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8">
       <c r="A210" s="3">
         <v>207</v>
       </c>
@@ -6115,18 +6718,18 @@
       <c r="D210" s="3">
         <v>4</v>
       </c>
-      <c r="E210" s="6" t="s">
+      <c r="E210" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G210" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H210" s="3"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8">
       <c r="A211" s="3">
         <v>208</v>
       </c>
@@ -6139,18 +6742,18 @@
       <c r="D211" s="3">
         <v>4</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="E211" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G211" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H211" s="3"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8">
       <c r="A212" s="3">
         <v>209</v>
       </c>
@@ -6163,18 +6766,18 @@
       <c r="D212" s="3">
         <v>4</v>
       </c>
-      <c r="E212" s="6" t="s">
+      <c r="E212" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G212" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H212" s="3"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8">
       <c r="A213" s="3">
         <v>210</v>
       </c>
@@ -6187,18 +6790,18 @@
       <c r="D213" s="3">
         <v>4</v>
       </c>
-      <c r="E213" s="6" t="s">
+      <c r="E213" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G213" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H213" s="3"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8">
       <c r="A214" s="3">
         <v>211</v>
       </c>
@@ -6211,18 +6814,18 @@
       <c r="D214" s="3">
         <v>4</v>
       </c>
-      <c r="E214" s="6" t="s">
+      <c r="E214" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G214" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H214" s="3"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8">
       <c r="A215" s="3">
         <v>212</v>
       </c>
@@ -6235,18 +6838,18 @@
       <c r="D215" s="3">
         <v>4</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="E215" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G215" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H215" s="3"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8">
       <c r="A216" s="3">
         <v>213</v>
       </c>
@@ -6259,18 +6862,18 @@
       <c r="D216" s="3">
         <v>4</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="E216" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G216" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H216" s="3"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8">
       <c r="A217" s="3">
         <v>214</v>
       </c>
@@ -6283,18 +6886,18 @@
       <c r="D217" s="3">
         <v>4</v>
       </c>
-      <c r="E217" s="6" t="s">
+      <c r="E217" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G217" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H217" s="3"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:8">
       <c r="A218" s="3">
         <v>215</v>
       </c>
@@ -6307,18 +6910,18 @@
       <c r="D218" s="3">
         <v>4</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="E218" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G218" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H218" s="3"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:8">
       <c r="A219" s="3">
         <v>216</v>
       </c>
@@ -6331,18 +6934,18 @@
       <c r="D219" s="3">
         <v>4</v>
       </c>
-      <c r="E219" s="6" t="s">
+      <c r="E219" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G219" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H219" s="3"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:8">
       <c r="A220" s="3">
         <v>217</v>
       </c>
@@ -6355,18 +6958,18 @@
       <c r="D220" s="3">
         <v>4</v>
       </c>
-      <c r="E220" s="6" t="s">
+      <c r="E220" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G220" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H220" s="3"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:8">
       <c r="A221" s="3">
         <v>218</v>
       </c>
@@ -6379,18 +6982,18 @@
       <c r="D221" s="3">
         <v>4</v>
       </c>
-      <c r="E221" s="6" t="s">
+      <c r="E221" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G221" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H221" s="3"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8">
       <c r="A222" s="3">
         <v>219</v>
       </c>
@@ -6403,18 +7006,18 @@
       <c r="D222" s="3">
         <v>4</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="E222" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G222" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H222" s="3"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8">
       <c r="A223" s="3">
         <v>220</v>
       </c>
@@ -6427,18 +7030,18 @@
       <c r="D223" s="3">
         <v>4</v>
       </c>
-      <c r="E223" s="6" t="s">
+      <c r="E223" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G223" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H223" s="3"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8">
       <c r="A224" s="3">
         <v>221</v>
       </c>
@@ -6451,18 +7054,18 @@
       <c r="D224" s="3">
         <v>4</v>
       </c>
-      <c r="E224" s="6" t="s">
+      <c r="E224" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G224" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H224" s="3"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:8">
       <c r="A225" s="3">
         <v>222</v>
       </c>
@@ -6475,18 +7078,18 @@
       <c r="D225" s="3">
         <v>4</v>
       </c>
-      <c r="E225" s="6" t="s">
+      <c r="E225" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G225" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H225" s="3"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:8">
       <c r="A226" s="3">
         <v>223</v>
       </c>
@@ -6499,18 +7102,18 @@
       <c r="D226" s="3">
         <v>4</v>
       </c>
-      <c r="E226" s="6" t="s">
+      <c r="E226" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G226" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H226" s="3"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:8">
       <c r="A227" s="3">
         <v>224</v>
       </c>
@@ -6523,18 +7126,18 @@
       <c r="D227" s="3">
         <v>4</v>
       </c>
-      <c r="E227" s="6" t="s">
+      <c r="E227" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G227" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H227" s="3"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:8">
       <c r="A228" s="3">
         <v>225</v>
       </c>
@@ -6547,18 +7150,18 @@
       <c r="D228" s="3">
         <v>4</v>
       </c>
-      <c r="E228" s="6" t="s">
+      <c r="E228" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G228" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H228" s="3"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:8">
       <c r="A229" s="3">
         <v>226</v>
       </c>
@@ -6571,18 +7174,18 @@
       <c r="D229" s="3">
         <v>4</v>
       </c>
-      <c r="E229" s="6" t="s">
+      <c r="E229" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G229" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H229" s="3"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:8">
       <c r="A230" s="3">
         <v>227</v>
       </c>
@@ -6595,18 +7198,18 @@
       <c r="D230" s="3">
         <v>4</v>
       </c>
-      <c r="E230" s="6" t="s">
+      <c r="E230" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G230" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H230" s="3"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:8">
       <c r="A231" s="3">
         <v>228</v>
       </c>
@@ -6619,18 +7222,18 @@
       <c r="D231" s="3">
         <v>4</v>
       </c>
-      <c r="E231" s="6" t="s">
+      <c r="E231" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G231" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H231" s="3"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:8">
       <c r="A232" s="3">
         <v>229</v>
       </c>
@@ -6643,18 +7246,18 @@
       <c r="D232" s="3">
         <v>4</v>
       </c>
-      <c r="E232" s="6" t="s">
+      <c r="E232" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G232" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H232" s="3"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:8">
       <c r="A233" s="3">
         <v>230</v>
       </c>
@@ -6667,18 +7270,18 @@
       <c r="D233" s="3">
         <v>4</v>
       </c>
-      <c r="E233" s="6" t="s">
+      <c r="E233" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G233" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H233" s="3"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:8">
       <c r="A234" s="3">
         <v>231</v>
       </c>
@@ -6691,18 +7294,18 @@
       <c r="D234" s="3">
         <v>4</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="E234" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G234" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H234" s="3"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:8">
       <c r="A235" s="3">
         <v>232</v>
       </c>
@@ -6715,18 +7318,18 @@
       <c r="D235" s="3">
         <v>4</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="E235" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G235" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H235" s="3"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:8">
       <c r="A236" s="3">
         <v>233</v>
       </c>
@@ -6739,18 +7342,18 @@
       <c r="D236" s="3">
         <v>4</v>
       </c>
-      <c r="E236" s="6" t="s">
+      <c r="E236" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G236" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H236" s="3"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:8">
       <c r="A237" s="3">
         <v>234</v>
       </c>
@@ -6763,18 +7366,18 @@
       <c r="D237" s="3">
         <v>4</v>
       </c>
-      <c r="E237" s="6" t="s">
+      <c r="E237" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G237" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H237" s="3"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:8">
       <c r="A238" s="3">
         <v>235</v>
       </c>
@@ -6787,18 +7390,18 @@
       <c r="D238" s="3">
         <v>4</v>
       </c>
-      <c r="E238" s="6" t="s">
+      <c r="E238" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G238" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H238" s="3"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:8">
       <c r="A239" s="3">
         <v>236</v>
       </c>
@@ -6811,18 +7414,18 @@
       <c r="D239" s="3">
         <v>4</v>
       </c>
-      <c r="E239" s="6" t="s">
+      <c r="E239" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G239" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H239" s="3"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:8">
       <c r="A240" s="3">
         <v>237</v>
       </c>
@@ -6835,18 +7438,18 @@
       <c r="D240" s="3">
         <v>4</v>
       </c>
-      <c r="E240" s="6" t="s">
+      <c r="E240" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G240" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H240" s="3"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8">
       <c r="A241" s="3">
         <v>238</v>
       </c>
@@ -6859,18 +7462,18 @@
       <c r="D241" s="3">
         <v>4</v>
       </c>
-      <c r="E241" s="6" t="s">
+      <c r="E241" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G241" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H241" s="3"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:8">
       <c r="A242" s="3">
         <v>239</v>
       </c>
@@ -6883,18 +7486,18 @@
       <c r="D242" s="3">
         <v>4</v>
       </c>
-      <c r="E242" s="6" t="s">
+      <c r="E242" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G242" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H242" s="3"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8">
       <c r="A243" s="3">
         <v>240</v>
       </c>
@@ -6907,18 +7510,18 @@
       <c r="D243" s="3">
         <v>4</v>
       </c>
-      <c r="E243" s="6" t="s">
+      <c r="E243" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G243" s="3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="H243" s="3"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:8">
       <c r="A244" s="3">
         <v>241</v>
       </c>
@@ -6931,18 +7534,18 @@
       <c r="D244" s="3">
         <v>5</v>
       </c>
-      <c r="E244" s="6" t="s">
+      <c r="E244" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G244" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H244" s="3"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:8">
       <c r="A245" s="3">
         <v>242</v>
       </c>
@@ -6955,18 +7558,18 @@
       <c r="D245" s="3">
         <v>5</v>
       </c>
-      <c r="E245" s="6" t="s">
+      <c r="E245" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G245" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H245" s="3"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:8">
       <c r="A246" s="3">
         <v>243</v>
       </c>
@@ -6979,18 +7582,18 @@
       <c r="D246" s="3">
         <v>5</v>
       </c>
-      <c r="E246" s="6" t="s">
+      <c r="E246" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G246" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H246" s="3"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:8">
       <c r="A247" s="3">
         <v>244</v>
       </c>
@@ -7003,18 +7606,18 @@
       <c r="D247" s="3">
         <v>5</v>
       </c>
-      <c r="E247" s="6" t="s">
+      <c r="E247" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G247" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H247" s="3"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:8">
       <c r="A248" s="3">
         <v>245</v>
       </c>
@@ -7027,18 +7630,18 @@
       <c r="D248" s="3">
         <v>5</v>
       </c>
-      <c r="E248" s="6" t="s">
+      <c r="E248" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G248" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H248" s="3"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:8">
       <c r="A249" s="3">
         <v>246</v>
       </c>
@@ -7051,18 +7654,18 @@
       <c r="D249" s="3">
         <v>5</v>
       </c>
-      <c r="E249" s="6" t="s">
+      <c r="E249" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G249" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H249" s="3"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:8">
       <c r="A250" s="3">
         <v>247</v>
       </c>
@@ -7075,18 +7678,18 @@
       <c r="D250" s="3">
         <v>5</v>
       </c>
-      <c r="E250" s="6" t="s">
+      <c r="E250" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G250" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H250" s="3"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:8">
       <c r="A251" s="3">
         <v>248</v>
       </c>
@@ -7099,18 +7702,18 @@
       <c r="D251" s="3">
         <v>5</v>
       </c>
-      <c r="E251" s="6" t="s">
+      <c r="E251" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G251" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H251" s="3"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:8">
       <c r="A252" s="3">
         <v>249</v>
       </c>
@@ -7123,18 +7726,18 @@
       <c r="D252" s="3">
         <v>5</v>
       </c>
-      <c r="E252" s="6" t="s">
+      <c r="E252" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G252" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H252" s="3"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:8">
       <c r="A253" s="3">
         <v>250</v>
       </c>
@@ -7147,18 +7750,18 @@
       <c r="D253" s="3">
         <v>5</v>
       </c>
-      <c r="E253" s="6" t="s">
+      <c r="E253" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G253" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H253" s="3"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:8">
       <c r="A254" s="3">
         <v>251</v>
       </c>
@@ -7171,18 +7774,18 @@
       <c r="D254" s="3">
         <v>5</v>
       </c>
-      <c r="E254" s="6" t="s">
+      <c r="E254" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G254" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H254" s="3"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:8">
       <c r="A255" s="3">
         <v>252</v>
       </c>
@@ -7195,18 +7798,18 @@
       <c r="D255" s="3">
         <v>5</v>
       </c>
-      <c r="E255" s="6" t="s">
+      <c r="E255" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G255" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H255" s="3"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:8">
       <c r="A256" s="3">
         <v>253</v>
       </c>
@@ -7219,18 +7822,18 @@
       <c r="D256" s="3">
         <v>5</v>
       </c>
-      <c r="E256" s="6" t="s">
+      <c r="E256" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G256" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H256" s="3"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:8">
       <c r="A257" s="3">
         <v>254</v>
       </c>
@@ -7243,18 +7846,18 @@
       <c r="D257" s="3">
         <v>5</v>
       </c>
-      <c r="E257" s="6" t="s">
+      <c r="E257" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G257" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H257" s="3"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:8">
       <c r="A258" s="3">
         <v>255</v>
       </c>
@@ -7267,18 +7870,18 @@
       <c r="D258" s="3">
         <v>5</v>
       </c>
-      <c r="E258" s="6" t="s">
+      <c r="E258" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G258" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H258" s="3"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:8">
       <c r="A259" s="3">
         <v>256</v>
       </c>
@@ -7291,18 +7894,18 @@
       <c r="D259" s="3">
         <v>5</v>
       </c>
-      <c r="E259" s="6" t="s">
+      <c r="E259" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G259" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H259" s="3"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:8">
       <c r="A260" s="3">
         <v>257</v>
       </c>
@@ -7315,18 +7918,18 @@
       <c r="D260" s="3">
         <v>5</v>
       </c>
-      <c r="E260" s="6" t="s">
+      <c r="E260" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G260" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:8">
       <c r="A261" s="3">
         <v>258</v>
       </c>
@@ -7339,18 +7942,18 @@
       <c r="D261" s="3">
         <v>5</v>
       </c>
-      <c r="E261" s="6" t="s">
+      <c r="E261" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G261" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:8">
       <c r="A262" s="3">
         <v>259</v>
       </c>
@@ -7363,18 +7966,18 @@
       <c r="D262" s="3">
         <v>5</v>
       </c>
-      <c r="E262" s="6" t="s">
+      <c r="E262" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G262" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:8">
       <c r="A263" s="3">
         <v>260</v>
       </c>
@@ -7387,18 +7990,18 @@
       <c r="D263" s="3">
         <v>5</v>
       </c>
-      <c r="E263" s="6" t="s">
+      <c r="E263" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G263" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:8">
       <c r="A264" s="3">
         <v>261</v>
       </c>
@@ -7411,18 +8014,18 @@
       <c r="D264" s="3">
         <v>5</v>
       </c>
-      <c r="E264" s="6" t="s">
+      <c r="E264" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G264" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:8">
       <c r="A265" s="3">
         <v>262</v>
       </c>
@@ -7435,18 +8038,18 @@
       <c r="D265" s="3">
         <v>5</v>
       </c>
-      <c r="E265" s="6" t="s">
+      <c r="E265" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G265" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:8">
       <c r="A266" s="3">
         <v>263</v>
       </c>
@@ -7459,18 +8062,18 @@
       <c r="D266" s="3">
         <v>5</v>
       </c>
-      <c r="E266" s="6" t="s">
+      <c r="E266" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G266" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:8">
       <c r="A267" s="3">
         <v>264</v>
       </c>
@@ -7483,18 +8086,18 @@
       <c r="D267" s="3">
         <v>5</v>
       </c>
-      <c r="E267" s="6" t="s">
+      <c r="E267" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G267" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:8">
       <c r="A268" s="3">
         <v>265</v>
       </c>
@@ -7507,18 +8110,18 @@
       <c r="D268" s="3">
         <v>5</v>
       </c>
-      <c r="E268" s="6" t="s">
+      <c r="E268" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G268" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:8">
       <c r="A269" s="3">
         <v>266</v>
       </c>
@@ -7531,18 +8134,18 @@
       <c r="D269" s="3">
         <v>5</v>
       </c>
-      <c r="E269" s="6" t="s">
+      <c r="E269" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G269" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:8">
       <c r="A270" s="3">
         <v>267</v>
       </c>
@@ -7555,18 +8158,18 @@
       <c r="D270" s="3">
         <v>5</v>
       </c>
-      <c r="E270" s="6" t="s">
+      <c r="E270" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G270" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H270" s="3"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:8">
       <c r="A271" s="3">
         <v>268</v>
       </c>
@@ -7579,18 +8182,18 @@
       <c r="D271" s="3">
         <v>5</v>
       </c>
-      <c r="E271" s="6" t="s">
+      <c r="E271" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G271" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:8">
       <c r="A272" s="3">
         <v>269</v>
       </c>
@@ -7603,18 +8206,18 @@
       <c r="D272" s="3">
         <v>5</v>
       </c>
-      <c r="E272" s="6" t="s">
+      <c r="E272" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F272" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G272" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H272" s="3"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:8">
       <c r="A273" s="3">
         <v>270</v>
       </c>
@@ -7627,18 +8230,18 @@
       <c r="D273" s="3">
         <v>5</v>
       </c>
-      <c r="E273" s="6" t="s">
+      <c r="E273" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G273" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H273" s="3"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:8">
       <c r="A274" s="3">
         <v>271</v>
       </c>
@@ -7651,18 +8254,18 @@
       <c r="D274" s="3">
         <v>5</v>
       </c>
-      <c r="E274" s="6" t="s">
+      <c r="E274" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G274" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:8">
       <c r="A275" s="3">
         <v>272</v>
       </c>
@@ -7675,18 +8278,18 @@
       <c r="D275" s="3">
         <v>5</v>
       </c>
-      <c r="E275" s="6" t="s">
+      <c r="E275" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G275" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:8">
       <c r="A276" s="3">
         <v>273</v>
       </c>
@@ -7699,18 +8302,18 @@
       <c r="D276" s="3">
         <v>5</v>
       </c>
-      <c r="E276" s="6" t="s">
+      <c r="E276" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G276" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:8">
       <c r="A277" s="3">
         <v>274</v>
       </c>
@@ -7723,18 +8326,18 @@
       <c r="D277" s="3">
         <v>5</v>
       </c>
-      <c r="E277" s="6" t="s">
+      <c r="E277" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G277" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H277" s="3"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:8">
       <c r="A278" s="3">
         <v>275</v>
       </c>
@@ -7747,18 +8350,18 @@
       <c r="D278" s="3">
         <v>5</v>
       </c>
-      <c r="E278" s="6" t="s">
+      <c r="E278" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G278" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H278" s="3"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:8">
       <c r="A279" s="3">
         <v>276</v>
       </c>
@@ -7771,18 +8374,18 @@
       <c r="D279" s="3">
         <v>5</v>
       </c>
-      <c r="E279" s="6" t="s">
+      <c r="E279" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G279" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:8">
       <c r="A280" s="3">
         <v>277</v>
       </c>
@@ -7795,18 +8398,18 @@
       <c r="D280" s="3">
         <v>5</v>
       </c>
-      <c r="E280" s="6" t="s">
+      <c r="E280" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G280" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H280" s="3"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:8">
       <c r="A281" s="3">
         <v>278</v>
       </c>
@@ -7819,18 +8422,18 @@
       <c r="D281" s="3">
         <v>5</v>
       </c>
-      <c r="E281" s="6" t="s">
+      <c r="E281" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G281" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:8">
       <c r="A282" s="3">
         <v>279</v>
       </c>
@@ -7843,18 +8446,18 @@
       <c r="D282" s="3">
         <v>5</v>
       </c>
-      <c r="E282" s="6" t="s">
+      <c r="E282" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F282" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G282" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H282" s="3"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:8">
       <c r="A283" s="3">
         <v>280</v>
       </c>
@@ -7867,18 +8470,18 @@
       <c r="D283" s="3">
         <v>5</v>
       </c>
-      <c r="E283" s="6" t="s">
+      <c r="E283" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G283" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H283" s="3"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:8">
       <c r="A284" s="3">
         <v>281</v>
       </c>
@@ -7891,18 +8494,18 @@
       <c r="D284" s="3">
         <v>5</v>
       </c>
-      <c r="E284" s="6" t="s">
+      <c r="E284" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G284" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:8">
       <c r="A285" s="3">
         <v>282</v>
       </c>
@@ -7915,18 +8518,18 @@
       <c r="D285" s="3">
         <v>5</v>
       </c>
-      <c r="E285" s="6" t="s">
+      <c r="E285" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F285" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G285" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H285" s="3"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:8">
       <c r="A286" s="3">
         <v>283</v>
       </c>
@@ -7939,18 +8542,18 @@
       <c r="D286" s="3">
         <v>5</v>
       </c>
-      <c r="E286" s="6" t="s">
+      <c r="E286" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G286" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H286" s="3"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:8">
       <c r="A287" s="3">
         <v>284</v>
       </c>
@@ -7963,18 +8566,18 @@
       <c r="D287" s="3">
         <v>5</v>
       </c>
-      <c r="E287" s="6" t="s">
+      <c r="E287" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G287" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H287" s="3"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:8">
       <c r="A288" s="3">
         <v>285</v>
       </c>
@@ -7987,18 +8590,18 @@
       <c r="D288" s="3">
         <v>5</v>
       </c>
-      <c r="E288" s="6" t="s">
+      <c r="E288" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F288" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G288" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:8">
       <c r="A289" s="3">
         <v>286</v>
       </c>
@@ -8011,18 +8614,18 @@
       <c r="D289" s="3">
         <v>5</v>
       </c>
-      <c r="E289" s="6" t="s">
+      <c r="E289" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G289" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H289" s="3"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:8">
       <c r="A290" s="3">
         <v>287</v>
       </c>
@@ -8035,18 +8638,18 @@
       <c r="D290" s="3">
         <v>5</v>
       </c>
-      <c r="E290" s="6" t="s">
+      <c r="E290" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G290" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:8">
       <c r="A291" s="3">
         <v>288</v>
       </c>
@@ -8059,18 +8662,18 @@
       <c r="D291" s="3">
         <v>5</v>
       </c>
-      <c r="E291" s="6" t="s">
+      <c r="E291" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G291" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H291" s="3"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:8">
       <c r="A292" s="3">
         <v>289</v>
       </c>
@@ -8083,18 +8686,18 @@
       <c r="D292" s="3">
         <v>5</v>
       </c>
-      <c r="E292" s="6" t="s">
+      <c r="E292" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G292" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H292" s="3"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:8">
       <c r="A293" s="3">
         <v>290</v>
       </c>
@@ -8107,18 +8710,18 @@
       <c r="D293" s="3">
         <v>5</v>
       </c>
-      <c r="E293" s="6" t="s">
+      <c r="E293" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G293" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H293" s="3"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:8">
       <c r="A294" s="3">
         <v>291</v>
       </c>
@@ -8131,18 +8734,18 @@
       <c r="D294" s="3">
         <v>5</v>
       </c>
-      <c r="E294" s="6" t="s">
+      <c r="E294" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G294" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H294" s="3"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:8">
       <c r="A295" s="3">
         <v>292</v>
       </c>
@@ -8155,18 +8758,18 @@
       <c r="D295" s="3">
         <v>5</v>
       </c>
-      <c r="E295" s="6" t="s">
+      <c r="E295" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G295" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H295" s="3"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:8">
       <c r="A296" s="3">
         <v>293</v>
       </c>
@@ -8179,18 +8782,18 @@
       <c r="D296" s="3">
         <v>5</v>
       </c>
-      <c r="E296" s="6" t="s">
+      <c r="E296" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F296" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G296" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H296" s="3"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:8">
       <c r="A297" s="3">
         <v>294</v>
       </c>
@@ -8203,18 +8806,18 @@
       <c r="D297" s="3">
         <v>5</v>
       </c>
-      <c r="E297" s="6" t="s">
+      <c r="E297" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F297" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G297" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H297" s="3"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:8">
       <c r="A298" s="3">
         <v>295</v>
       </c>
@@ -8227,18 +8830,18 @@
       <c r="D298" s="3">
         <v>5</v>
       </c>
-      <c r="E298" s="6" t="s">
+      <c r="E298" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F298" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G298" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H298" s="3"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:8">
       <c r="A299" s="3">
         <v>296</v>
       </c>
@@ -8251,18 +8854,18 @@
       <c r="D299" s="3">
         <v>5</v>
       </c>
-      <c r="E299" s="6" t="s">
+      <c r="E299" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G299" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H299" s="3"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:8">
       <c r="A300" s="3">
         <v>297</v>
       </c>
@@ -8275,18 +8878,18 @@
       <c r="D300" s="3">
         <v>5</v>
       </c>
-      <c r="E300" s="6" t="s">
+      <c r="E300" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G300" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:8">
       <c r="A301" s="3">
         <v>298</v>
       </c>
@@ -8299,18 +8902,18 @@
       <c r="D301" s="3">
         <v>5</v>
       </c>
-      <c r="E301" s="6" t="s">
+      <c r="E301" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G301" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:8">
       <c r="A302" s="3">
         <v>299</v>
       </c>
@@ -8323,18 +8926,18 @@
       <c r="D302" s="3">
         <v>5</v>
       </c>
-      <c r="E302" s="6" t="s">
+      <c r="E302" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G302" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H302" s="3"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:8">
       <c r="A303" s="3">
         <v>300</v>
       </c>
@@ -8347,14 +8950,14 @@
       <c r="D303" s="3">
         <v>5</v>
       </c>
-      <c r="E303" s="6" t="s">
+      <c r="E303" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G303" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H303" s="3"/>
     </row>
@@ -8362,35 +8965,41 @@
   <mergeCells count="1">
     <mergeCell ref="I10:I13"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>